--- a/po_analysis_by_asin/B0BMN3S3RK_po_data.xlsx
+++ b/po_analysis_by_asin/B0BMN3S3RK_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,185 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B24" t="n">
         <v>22</v>
       </c>
     </row>
@@ -469,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +667,65 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B9" t="n">
         <v>22</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BMN3S3RK_po_data.xlsx
+++ b/po_analysis_by_asin/B0BMN3S3RK_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,14 +626,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -645,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,14 +713,6 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0BMN3S3RK_po_data.xlsx
+++ b/po_analysis_by_asin/B0BMN3S3RK_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,467 @@
       </c>
       <c r="B8" t="n">
         <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-12.89637330945477</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.07206842611673</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-13.07572996994117</v>
+      </c>
+      <c r="D3" t="n">
+        <v>71.10833187444037</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.518361272783023</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.8864761656195</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-10.14030430621499</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.61993413179903</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7.098919186671057</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.03556277956301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-9.722744604708195</v>
+      </c>
+      <c r="D7" t="n">
+        <v>69.91790726913166</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.12300040833935</v>
+      </c>
+      <c r="D8" t="n">
+        <v>71.64756400690683</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-9.449143259210389</v>
+      </c>
+      <c r="D9" t="n">
+        <v>71.71203999034165</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.996677324757979</v>
+      </c>
+      <c r="D10" t="n">
+        <v>72.02131628876222</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-9.41341703005145</v>
+      </c>
+      <c r="D11" t="n">
+        <v>74.59961594782385</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-10.23651858569512</v>
+      </c>
+      <c r="D12" t="n">
+        <v>72.13174726597984</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-10.08505783821591</v>
+      </c>
+      <c r="D13" t="n">
+        <v>74.27403076897691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-10.4201566052212</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71.29645586233154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-7.862537409194272</v>
+      </c>
+      <c r="D15" t="n">
+        <v>74.71676966545078</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-9.52299264119155</v>
+      </c>
+      <c r="D16" t="n">
+        <v>73.58194374553234</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-8.85918268545975</v>
+      </c>
+      <c r="D17" t="n">
+        <v>73.67124630429876</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>33</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-7.064022125473108</v>
+      </c>
+      <c r="D18" t="n">
+        <v>72.6178307299239</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-7.215497664935226</v>
+      </c>
+      <c r="D19" t="n">
+        <v>76.02562385360139</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>34</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-6.430658325627443</v>
+      </c>
+      <c r="D20" t="n">
+        <v>74.5470385928415</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-7.19988722539273</v>
+      </c>
+      <c r="D21" t="n">
+        <v>74.27635055792035</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>34</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-10.21795678937115</v>
+      </c>
+      <c r="D22" t="n">
+        <v>76.8175671218674</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.904591134033498</v>
+      </c>
+      <c r="D23" t="n">
+        <v>76.00286899071182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>34</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-7.84161407428102</v>
+      </c>
+      <c r="D24" t="n">
+        <v>73.98249236978884</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.890514857209525</v>
+      </c>
+      <c r="D25" t="n">
+        <v>75.48752250572805</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>35</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.499118741967825</v>
+      </c>
+      <c r="D26" t="n">
+        <v>78.19128312011526</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>35</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-7.16640521983622</v>
+      </c>
+      <c r="D27" t="n">
+        <v>72.95234217212622</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>35</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.532933440803401</v>
+      </c>
+      <c r="D28" t="n">
+        <v>75.81392753630419</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>35</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-7.299870129033637</v>
+      </c>
+      <c r="D29" t="n">
+        <v>73.10130230623768</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>35</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.143916161477298</v>
+      </c>
+      <c r="D30" t="n">
+        <v>76.45400805048185</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>35</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.355239229619038</v>
+      </c>
+      <c r="D31" t="n">
+        <v>72.61460648375494</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BMN3S3RK_po_data.xlsx
+++ b/po_analysis_by_asin/B0BMN3S3RK_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>30</v>
       </c>
-      <c r="C2" t="n">
-        <v>-12.89637330945477</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69.07206842611673</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>30</v>
       </c>
-      <c r="C3" t="n">
-        <v>-13.07572996994117</v>
-      </c>
-      <c r="D3" t="n">
-        <v>71.10833187444037</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
-        <v>-9.518361272783023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.8864761656195</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>31</v>
       </c>
-      <c r="C5" t="n">
-        <v>-10.14030430621499</v>
-      </c>
-      <c r="D5" t="n">
-        <v>69.61993413179903</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
-        <v>-7.098919186671057</v>
-      </c>
-      <c r="D6" t="n">
-        <v>72.03556277956301</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>31</v>
       </c>
-      <c r="C7" t="n">
-        <v>-9.722744604708195</v>
-      </c>
-      <c r="D7" t="n">
-        <v>69.91790726913166</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>31</v>
       </c>
-      <c r="C8" t="n">
-        <v>-10.12300040833935</v>
-      </c>
-      <c r="D8" t="n">
-        <v>71.64756400690683</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>31</v>
       </c>
-      <c r="C9" t="n">
-        <v>-9.449143259210389</v>
-      </c>
-      <c r="D9" t="n">
-        <v>71.71203999034165</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>32</v>
       </c>
-      <c r="C10" t="n">
-        <v>-5.996677324757979</v>
-      </c>
-      <c r="D10" t="n">
-        <v>72.02131628876222</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>32</v>
       </c>
-      <c r="C11" t="n">
-        <v>-9.41341703005145</v>
-      </c>
-      <c r="D11" t="n">
-        <v>74.59961594782385</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>32</v>
       </c>
-      <c r="C12" t="n">
-        <v>-10.23651858569512</v>
-      </c>
-      <c r="D12" t="n">
-        <v>72.13174726597984</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>32</v>
       </c>
-      <c r="C13" t="n">
-        <v>-10.08505783821591</v>
-      </c>
-      <c r="D13" t="n">
-        <v>74.27403076897691</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>33</v>
       </c>
-      <c r="C14" t="n">
-        <v>-10.4201566052212</v>
-      </c>
-      <c r="D14" t="n">
-        <v>71.29645586233154</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>33</v>
       </c>
-      <c r="C15" t="n">
-        <v>-7.862537409194272</v>
-      </c>
-      <c r="D15" t="n">
-        <v>74.71676966545078</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
-        <v>-9.52299264119155</v>
-      </c>
-      <c r="D16" t="n">
-        <v>73.58194374553234</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>33</v>
       </c>
-      <c r="C17" t="n">
-        <v>-8.85918268545975</v>
-      </c>
-      <c r="D17" t="n">
-        <v>73.67124630429876</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>33</v>
       </c>
-      <c r="C18" t="n">
-        <v>-7.064022125473108</v>
-      </c>
-      <c r="D18" t="n">
-        <v>72.6178307299239</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>34</v>
       </c>
-      <c r="C19" t="n">
-        <v>-7.215497664935226</v>
-      </c>
-      <c r="D19" t="n">
-        <v>76.02562385360139</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>34</v>
       </c>
-      <c r="C20" t="n">
-        <v>-6.430658325627443</v>
-      </c>
-      <c r="D20" t="n">
-        <v>74.5470385928415</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>34</v>
       </c>
-      <c r="C21" t="n">
-        <v>-7.19988722539273</v>
-      </c>
-      <c r="D21" t="n">
-        <v>74.27635055792035</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>34</v>
       </c>
-      <c r="C22" t="n">
-        <v>-10.21795678937115</v>
-      </c>
-      <c r="D22" t="n">
-        <v>76.8175671218674</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>34</v>
       </c>
-      <c r="C23" t="n">
-        <v>-3.904591134033498</v>
-      </c>
-      <c r="D23" t="n">
-        <v>76.00286899071182</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>34</v>
       </c>
-      <c r="C24" t="n">
-        <v>-7.84161407428102</v>
-      </c>
-      <c r="D24" t="n">
-        <v>73.98249236978884</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>34</v>
       </c>
-      <c r="C25" t="n">
-        <v>-2.890514857209525</v>
-      </c>
-      <c r="D25" t="n">
-        <v>75.48752250572805</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>35</v>
       </c>
-      <c r="C26" t="n">
-        <v>-6.499118741967825</v>
-      </c>
-      <c r="D26" t="n">
-        <v>78.19128312011526</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1112,12 +952,6 @@
       <c r="B27" t="n">
         <v>35</v>
       </c>
-      <c r="C27" t="n">
-        <v>-7.16640521983622</v>
-      </c>
-      <c r="D27" t="n">
-        <v>72.95234217212622</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1126,12 +960,6 @@
       <c r="B28" t="n">
         <v>35</v>
       </c>
-      <c r="C28" t="n">
-        <v>-4.532933440803401</v>
-      </c>
-      <c r="D28" t="n">
-        <v>75.81392753630419</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1140,12 +968,6 @@
       <c r="B29" t="n">
         <v>35</v>
       </c>
-      <c r="C29" t="n">
-        <v>-7.299870129033637</v>
-      </c>
-      <c r="D29" t="n">
-        <v>73.10130230623768</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1154,12 +976,6 @@
       <c r="B30" t="n">
         <v>35</v>
       </c>
-      <c r="C30" t="n">
-        <v>-4.143916161477298</v>
-      </c>
-      <c r="D30" t="n">
-        <v>76.45400805048185</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1167,12 +983,6 @@
       </c>
       <c r="B31" t="n">
         <v>35</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-7.355239229619038</v>
-      </c>
-      <c r="D31" t="n">
-        <v>72.61460648375494</v>
       </c>
     </row>
   </sheetData>
